--- a/raw_data/20200818_saline/20200818_Sensor1_Test_76.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_76.xlsx
@@ -1,4952 +1,5368 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0C13D-3120-4E76-82BE-F07FD5185441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>67687.038022</v>
+        <v>67687.038021999993</v>
       </c>
       <c r="B2" s="1">
         <v>18.801955</v>
       </c>
       <c r="C2" s="1">
-        <v>900.866000</v>
+        <v>900.86599999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-188.540000</v>
+        <v>-188.54</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>67697.139576</v>
+        <v>67697.139576000001</v>
       </c>
       <c r="G2" s="1">
-        <v>18.804761</v>
+        <v>18.804760999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>917.143000</v>
+        <v>917.14300000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-160.483000</v>
+        <v>-160.483</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>67707.249499</v>
+        <v>67707.249498999998</v>
       </c>
       <c r="L2" s="1">
-        <v>18.807569</v>
+        <v>18.807569000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>939.488000</v>
+        <v>939.48800000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.000000</v>
+        <v>-116</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>67717.732941</v>
+        <v>67717.732940999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.810481</v>
+        <v>18.810480999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>946.432000</v>
+        <v>946.43200000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.380000</v>
+        <v>-101.38</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>67728.001651</v>
+        <v>67728.001650999999</v>
       </c>
       <c r="V2" s="1">
-        <v>18.813334</v>
+        <v>18.813334000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>953.533000</v>
+        <v>953.53300000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.638900</v>
+        <v>-87.638900000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>67738.437442</v>
+        <v>67738.437441999995</v>
       </c>
       <c r="AA2" s="1">
         <v>18.816233</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.564000</v>
+        <v>961.56399999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.863400</v>
+        <v>-76.863399999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>67749.329618</v>
+        <v>67749.329618000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.819258</v>
+        <v>18.819258000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.743000</v>
+        <v>966.74300000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.855300</v>
+        <v>-74.8553</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>67759.781816</v>
+        <v>67759.781816000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.822162</v>
+        <v>18.822161999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.402000</v>
+        <v>974.40200000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.546900</v>
+        <v>-79.546899999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>67770.359464</v>
+        <v>67770.359463999994</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.825100</v>
+        <v>18.825099999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.688000</v>
+        <v>982.68799999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.985200</v>
+        <v>-90.985200000000006</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>67781.671755</v>
+        <v>67781.671755000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.828242</v>
+        <v>18.828241999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.675000</v>
+        <v>992.67499999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.448000</v>
+        <v>-108.44799999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>67792.777640</v>
+        <v>67792.77764</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.831327</v>
+        <v>18.831327000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.935000</v>
+        <v>-123.935</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>67803.763075</v>
+        <v>67803.763074999995</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.834379</v>
+        <v>18.834378999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.053000</v>
+        <v>-195.053</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>67814.846667</v>
+        <v>67814.846667000005</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.837457</v>
+        <v>18.837457000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.860000</v>
+        <v>1106.8599999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.843000</v>
+        <v>-309.84300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>67825.583039</v>
+        <v>67825.583039000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.840440</v>
+        <v>18.840440000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-489.422000</v>
+        <v>-489.42200000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>67836.662208</v>
+        <v>67836.662207999994</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.843517</v>
+        <v>18.843516999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.800000</v>
+        <v>1336.8</v>
       </c>
       <c r="BV2" s="1">
-        <v>-685.189000</v>
+        <v>-685.18899999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>67847.042977</v>
+        <v>67847.042977000005</v>
       </c>
       <c r="BY2" s="1">
         <v>18.846401</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.370000</v>
+        <v>1471.37</v>
       </c>
       <c r="CA2" s="1">
-        <v>-893.283000</v>
+        <v>-893.28300000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>67858.024408</v>
+        <v>67858.024407999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.849451</v>
+        <v>18.849450999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1822.420000</v>
+        <v>1822.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1384.860000</v>
+        <v>-1384.86</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>67687.406052</v>
+        <v>67687.406052000006</v>
       </c>
       <c r="B3" s="1">
-        <v>18.802057</v>
+        <v>18.802057000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>900.924000</v>
+        <v>900.92399999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-188.595000</v>
+        <v>-188.595</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>67697.560183</v>
+        <v>67697.560182999994</v>
       </c>
       <c r="G3" s="1">
-        <v>18.804878</v>
+        <v>18.804877999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>916.901000</v>
+        <v>916.90099999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-160.289000</v>
+        <v>-160.28899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>67707.674606</v>
       </c>
       <c r="L3" s="1">
-        <v>18.807687</v>
+        <v>18.807687000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>939.348000</v>
+        <v>939.34799999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.042000</v>
+        <v>-116.042</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>67718.154572</v>
+        <v>67718.154571999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.810598</v>
+        <v>18.810597999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.446000</v>
+        <v>946.44600000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.391000</v>
+        <v>-101.39100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>67728.374638</v>
+        <v>67728.374637999994</v>
       </c>
       <c r="V3" s="1">
         <v>18.813437</v>
       </c>
       <c r="W3" s="1">
-        <v>953.698000</v>
+        <v>953.69799999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.621500</v>
+        <v>-87.621499999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>67738.800512</v>
+        <v>67738.800512000002</v>
       </c>
       <c r="AA3" s="1">
         <v>18.816333</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.588000</v>
+        <v>961.58799999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.839300</v>
+        <v>-76.839299999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>67749.710017</v>
+        <v>67749.710017000005</v>
       </c>
       <c r="AF3" s="1">
         <v>18.819364</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.733000</v>
+        <v>966.73299999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.800300</v>
+        <v>-74.800299999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>67760.515892</v>
+        <v>67760.515891999996</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.822366</v>
+        <v>18.822365999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.383000</v>
+        <v>974.38300000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.561300</v>
+        <v>-79.561300000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>67771.106467</v>
+        <v>67771.106467000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.825307</v>
+        <v>18.825306999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.671000</v>
+        <v>982.67100000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.978100</v>
+        <v>-90.978099999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>67782.065560</v>
+        <v>67782.065560000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.828352</v>
+        <v>18.828351999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.647000</v>
+        <v>992.64700000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.470000</v>
+        <v>-108.47</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>67793.191337</v>
+        <v>67793.191336999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.831442</v>
+        <v>18.831441999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>67804.126634</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.834480</v>
+        <v>18.834479999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.056000</v>
+        <v>-195.05600000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>67815.554427</v>
+        <v>67815.554426999995</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.837654</v>
+        <v>18.837654000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.870000</v>
+        <v>1106.8699999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.806000</v>
+        <v>-309.80599999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>67826.316621</v>
+        <v>67826.316621000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.840644</v>
+        <v>18.840644000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-489.475000</v>
+        <v>-489.47500000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>67836.803040</v>
+        <v>67836.803039999999</v>
       </c>
       <c r="BT3" s="1">
         <v>18.843556</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.790000</v>
+        <v>1336.79</v>
       </c>
       <c r="BV3" s="1">
-        <v>-685.241000</v>
+        <v>-685.24099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>67847.508194</v>
+        <v>67847.508193999995</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.846530</v>
+        <v>18.846530000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.350000</v>
+        <v>1471.35</v>
       </c>
       <c r="CA3" s="1">
-        <v>-893.294000</v>
+        <v>-893.29399999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>67858.618578</v>
+        <v>67858.618577999994</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.849616</v>
+        <v>18.849616000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1820.940000</v>
+        <v>1820.94</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1384.930000</v>
+        <v>-1384.93</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>67687.840548</v>
+        <v>67687.840547999993</v>
       </c>
       <c r="B4" s="1">
-        <v>18.802178</v>
+        <v>18.802178000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>900.983000</v>
+        <v>900.98299999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-188.424000</v>
+        <v>-188.42400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>67697.869160</v>
+        <v>67697.869160000002</v>
       </c>
       <c r="G4" s="1">
-        <v>18.804964</v>
+        <v>18.804963999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>916.871000</v>
+        <v>916.87099999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-160.964000</v>
+        <v>-160.964</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>67708.022798</v>
+        <v>67708.022798000005</v>
       </c>
       <c r="L4" s="1">
-        <v>18.807784</v>
+        <v>18.807784000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>939.534000</v>
+        <v>939.53399999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.021000</v>
+        <v>-116.021</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>67718.502731</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.810695</v>
+        <v>18.810694999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>946.435000</v>
+        <v>946.43499999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.412000</v>
+        <v>-101.41200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>67728.719821</v>
+        <v>67728.719821000006</v>
       </c>
       <c r="V4" s="1">
         <v>18.813533</v>
       </c>
       <c r="W4" s="1">
-        <v>953.618000</v>
+        <v>953.61800000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.643000</v>
+        <v>-87.643000000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>67739.148705</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.816430</v>
+        <v>18.81643</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.599000</v>
+        <v>961.59900000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.869600</v>
+        <v>-76.869600000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>67750.395527</v>
+        <v>67750.395527000001</v>
       </c>
       <c r="AF4" s="1">
         <v>18.819554</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.732000</v>
+        <v>966.73199999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.790600</v>
+        <v>-74.790599999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>67760.864549</v>
+        <v>67760.864549000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.822462</v>
+        <v>18.822462000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.370000</v>
+        <v>974.37</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.587900</v>
+        <v>-79.587900000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>67771.467061</v>
+        <v>67771.467061000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.825408</v>
+        <v>18.825407999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.661000</v>
+        <v>982.66099999999994</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.981500</v>
+        <v>-90.981499999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>67782.429606</v>
+        <v>67782.429606000005</v>
       </c>
       <c r="AU4" s="1">
         <v>18.828453</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.631000</v>
+        <v>992.63099999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>67793.851480</v>
+        <v>67793.851479999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.831625</v>
+        <v>18.831624999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.942000</v>
+        <v>-123.94199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>67804.796203</v>
+        <v>67804.796203000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.834666</v>
+        <v>18.834665999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.830000</v>
+        <v>1039.83</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.049000</v>
+        <v>-195.04900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>67815.995868</v>
+        <v>67815.995867999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.837777</v>
+        <v>18.837776999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.886000</v>
+        <v>-309.88600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>67826.429709</v>
+        <v>67826.429709000004</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.840675</v>
+        <v>18.840675000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-489.465000</v>
+        <v>-489.46499999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>67837.211246</v>
+        <v>67837.211246000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.843670</v>
+        <v>18.843669999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.780000</v>
+        <v>1336.78</v>
       </c>
       <c r="BV4" s="1">
-        <v>-685.191000</v>
+        <v>-685.19100000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>67847.955585</v>
+        <v>67847.955585000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.846654</v>
+        <v>18.846654000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.350000</v>
+        <v>1471.35</v>
       </c>
       <c r="CA4" s="1">
-        <v>-893.355000</v>
+        <v>-893.35500000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>67859.159714</v>
+        <v>67859.159713999994</v>
       </c>
       <c r="CD4" s="1">
         <v>18.849767</v>
       </c>
       <c r="CE4" s="1">
-        <v>1822.120000</v>
+        <v>1822.12</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1386.050000</v>
+        <v>-1386.05</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>67688.115506</v>
+        <v>67688.115506000002</v>
       </c>
       <c r="B5" s="1">
-        <v>18.802254</v>
+        <v>18.802254000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>900.803000</v>
+        <v>900.803</v>
       </c>
       <c r="D5" s="1">
-        <v>-188.669000</v>
+        <v>-188.66900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>67698.209941</v>
+        <v>67698.209940999994</v>
       </c>
       <c r="G5" s="1">
-        <v>18.805058</v>
+        <v>18.805057999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>916.953000</v>
+        <v>916.95299999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-160.376000</v>
+        <v>-160.376</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>67708.320360</v>
+        <v>67708.320359999998</v>
       </c>
       <c r="L5" s="1">
-        <v>18.807867</v>
+        <v>18.807867000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>939.302000</v>
+        <v>939.30200000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.131000</v>
+        <v>-116.131</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>67718.850955</v>
+        <v>67718.850955000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.810792</v>
+        <v>18.810791999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>946.357000</v>
+        <v>946.35699999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.318000</v>
+        <v>-101.318</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>67729.394876</v>
+        <v>67729.394876000006</v>
       </c>
       <c r="V5" s="1">
-        <v>18.813721</v>
+        <v>18.813721000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.542000</v>
+        <v>953.54200000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.591500</v>
+        <v>-87.591499999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>67739.846111</v>
+        <v>67739.846111000006</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.816624</v>
+        <v>18.816624000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.489000</v>
+        <v>961.48900000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.976300</v>
+        <v>-76.976299999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>67750.740241</v>
+        <v>67750.740241000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.819650</v>
+        <v>18.819649999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.735000</v>
+        <v>966.73500000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.854000</v>
+        <v>-74.853999999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>67761.210791</v>
+        <v>67761.210791000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.822559</v>
+        <v>18.822558999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.370000</v>
+        <v>974.37</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.545700</v>
+        <v>-79.545699999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>67771.826663</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.825507</v>
+        <v>18.825507000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.659000</v>
+        <v>982.65899999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.008400</v>
+        <v>-91.008399999999995</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>67783.109657</v>
+        <v>67783.109656999994</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.828642</v>
+        <v>18.828641999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.655000</v>
+        <v>992.65499999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.456000</v>
+        <v>-108.456</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>67794.258695</v>
+        <v>67794.258694999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.831739</v>
+        <v>18.831738999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.935000</v>
+        <v>-123.935</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>67805.242143</v>
+        <v>67805.242142999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.834789</v>
+        <v>18.834789000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.061000</v>
+        <v>-195.06100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>67816.371375</v>
+        <v>67816.371375000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.837881</v>
+        <v>18.837880999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.799000</v>
+        <v>-309.79899999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>67826.856267</v>
+        <v>67826.856266999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.840793</v>
+        <v>18.840793000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-489.427000</v>
+        <v>-489.42700000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>67837.641278</v>
+        <v>67837.641277999996</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.843789</v>
+        <v>18.843789000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="BV5" s="1">
-        <v>-685.206000</v>
+        <v>-685.20600000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>67848.387632</v>
+        <v>67848.387631999998</v>
       </c>
       <c r="BY5" s="1">
         <v>18.846774</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-893.437000</v>
+        <v>-893.43700000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>67859.700850</v>
+        <v>67859.700849999994</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.849917</v>
+        <v>18.849917000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1821.380000</v>
+        <v>1821.38</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1384.510000</v>
+        <v>-1384.51</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>67688.460547</v>
+        <v>67688.460546999995</v>
       </c>
       <c r="B6" s="1">
-        <v>18.802350</v>
+        <v>18.802350000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>900.664000</v>
+        <v>900.66399999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-188.441000</v>
+        <v>-188.441</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>67698.555157</v>
+        <v>67698.555156999995</v>
       </c>
       <c r="G6" s="1">
-        <v>18.805154</v>
+        <v>18.805154000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>916.745000</v>
+        <v>916.745</v>
       </c>
       <c r="I6" s="1">
-        <v>-160.613000</v>
+        <v>-160.613</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>67709.014795</v>
+        <v>67709.014794999996</v>
       </c>
       <c r="L6" s="1">
-        <v>18.808060</v>
+        <v>18.808060000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>939.405000</v>
+        <v>939.40499999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.108000</v>
+        <v>-116.108</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>67719.550777</v>
+        <v>67719.550776999997</v>
       </c>
       <c r="Q6" s="1">
         <v>18.810986</v>
       </c>
       <c r="R6" s="1">
-        <v>946.391000</v>
+        <v>946.39099999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.360000</v>
+        <v>-101.36</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>67729.750012</v>
+        <v>67729.750012000004</v>
       </c>
       <c r="V6" s="1">
-        <v>18.813819</v>
+        <v>18.813818999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>953.533000</v>
+        <v>953.53300000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.595300</v>
+        <v>-87.595299999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>67740.192318</v>
+        <v>67740.192318000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.816720</v>
+        <v>18.81672</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.528000</v>
+        <v>961.52800000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.886500</v>
+        <v>-76.886499999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>67751.085425</v>
+        <v>67751.085424999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.819746</v>
+        <v>18.819745999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.710000</v>
+        <v>966.71</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.813900</v>
+        <v>-74.813900000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>67761.874899</v>
+        <v>67761.874899000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.822743</v>
+        <v>18.822742999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.412000</v>
+        <v>974.41200000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.559100</v>
+        <v>-79.559100000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>67772.488293</v>
+        <v>67772.488293000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.825691</v>
+        <v>18.825690999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.672000</v>
+        <v>982.67200000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.996200</v>
+        <v>-90.996200000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>67783.558501</v>
+        <v>67783.558501000007</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.828766</v>
+        <v>18.828766000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.627000</v>
+        <v>992.62699999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.459000</v>
+        <v>-108.459</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>67794.641110</v>
+        <v>67794.641109999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.831845</v>
+        <v>18.831845000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.932000</v>
+        <v>-123.932</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>67805.601704</v>
+        <v>67805.601704000001</v>
       </c>
       <c r="BE6" s="1">
         <v>18.834889</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.055000</v>
+        <v>-195.05500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>67816.743337</v>
+        <v>67816.743337000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.837984</v>
+        <v>18.837983999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.870000</v>
+        <v>1106.8699999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.844000</v>
+        <v>-309.84399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>67827.251581</v>
+        <v>67827.251581000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.840903</v>
+        <v>18.840903000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-489.428000</v>
+        <v>-489.428</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>67838.065890</v>
+        <v>67838.065889999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.843907</v>
+        <v>18.843907000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.710000</v>
+        <v>1336.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-685.218000</v>
+        <v>-685.21799999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>67848.810192</v>
+        <v>67848.810192000004</v>
       </c>
       <c r="BY6" s="1">
         <v>18.846892</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA6" s="1">
-        <v>-893.416000</v>
+        <v>-893.41600000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>67860.239504</v>
+        <v>67860.239503999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.850067</v>
+        <v>18.850066999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1821.060000</v>
+        <v>1821.06</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1386.050000</v>
+        <v>-1386.05</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>67688.802325</v>
+        <v>67688.802324999997</v>
       </c>
       <c r="B7" s="1">
-        <v>18.802445</v>
+        <v>18.802444999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>900.903000</v>
+        <v>900.90300000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-188.332000</v>
+        <v>-188.33199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>67699.242581</v>
+        <v>67699.242580999999</v>
       </c>
       <c r="G7" s="1">
-        <v>18.805345</v>
+        <v>18.805344999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>917.259000</v>
+        <v>917.25900000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-160.917000</v>
+        <v>-160.917</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>67709.357000</v>
+        <v>67709.357000000004</v>
       </c>
       <c r="L7" s="1">
-        <v>18.808155</v>
+        <v>18.808154999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>939.302000</v>
+        <v>939.30200000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.048000</v>
+        <v>-116.048</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>67719.897977</v>
+        <v>67719.897977000001</v>
       </c>
       <c r="Q7" s="1">
         <v>18.811083</v>
       </c>
       <c r="R7" s="1">
-        <v>946.419000</v>
+        <v>946.41899999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.386000</v>
+        <v>-101.386</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>67730.092252</v>
+        <v>67730.092252000002</v>
       </c>
       <c r="V7" s="1">
-        <v>18.813915</v>
+        <v>18.813915000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.616000</v>
+        <v>953.61599999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.595400</v>
+        <v>-87.595399999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>67740.543950</v>
+        <v>67740.543950000007</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.816818</v>
+        <v>18.816818000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.585000</v>
+        <v>961.58500000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.894000</v>
+        <v>-76.894000000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>67751.742161</v>
+        <v>67751.742161000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.819928</v>
+        <v>18.819928000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.616000</v>
+        <v>966.61599999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.650300</v>
+        <v>-74.650300000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>67762.256359</v>
+        <v>67762.256359000006</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.822849</v>
+        <v>18.822849000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.368000</v>
+        <v>974.36800000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.544400</v>
+        <v>-79.544399999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>67772.906420</v>
+        <v>67772.906419999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.825807</v>
+        <v>18.825807000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.658000</v>
+        <v>982.65800000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.992300</v>
+        <v>-90.9923</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>67783.926036</v>
+        <v>67783.926036000004</v>
       </c>
       <c r="AU7" s="1">
         <v>18.828868</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.639000</v>
+        <v>992.63900000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>67794.999749</v>
+        <v>67794.999748999995</v>
       </c>
       <c r="AZ7" s="1">
         <v>18.831944</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.931000</v>
+        <v>-123.931</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>67805.960343</v>
+        <v>67805.960342999999</v>
       </c>
       <c r="BE7" s="1">
         <v>18.834989</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.064000</v>
+        <v>-195.06399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>67817.170490</v>
+        <v>67817.170490000004</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.838103</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.849000</v>
+        <v>-309.84899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>67828.070511</v>
+        <v>67828.070510999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.841131</v>
+        <v>18.841131000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-489.444000</v>
+        <v>-489.44400000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>67838.473564</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.844020</v>
+        <v>18.84402</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.730000</v>
+        <v>1336.73</v>
       </c>
       <c r="BV7" s="1">
-        <v>-685.229000</v>
+        <v>-685.22900000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>67849.227822</v>
+        <v>67849.227822000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.847008</v>
+        <v>18.847007999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.150000</v>
+        <v>1471.15</v>
       </c>
       <c r="CA7" s="1">
-        <v>-893.412000</v>
+        <v>-893.41200000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>67860.780143</v>
+        <v>67860.780142999996</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.850217</v>
+        <v>18.850217000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.400000</v>
+        <v>1822.4</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1384.720000</v>
+        <v>-1384.72</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>67689.484291</v>
+        <v>67689.484291000001</v>
       </c>
       <c r="B8" s="1">
-        <v>18.802635</v>
+        <v>18.802634999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>900.787000</v>
+        <v>900.78700000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-188.436000</v>
+        <v>-188.43600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>67699.586838</v>
+        <v>67699.586838000003</v>
       </c>
       <c r="G8" s="1">
-        <v>18.805441</v>
+        <v>18.805440999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>916.845000</v>
+        <v>916.84500000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-160.405000</v>
+        <v>-160.405</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>67709.701753</v>
+        <v>67709.701753000001</v>
       </c>
       <c r="L8" s="1">
-        <v>18.808250</v>
+        <v>18.808250000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>939.508000</v>
+        <v>939.50800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.152000</v>
+        <v>-116.152</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>67720.249181</v>
+        <v>67720.249181000007</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.811180</v>
+        <v>18.81118</v>
       </c>
       <c r="R8" s="1">
-        <v>946.434000</v>
+        <v>946.43399999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.353000</v>
+        <v>-101.35299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>67730.752924</v>
       </c>
       <c r="V8" s="1">
-        <v>18.814098</v>
+        <v>18.814098000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>953.580000</v>
+        <v>953.58</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.559800</v>
+        <v>-87.559799999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>67741.207597</v>
+        <v>67741.207597000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.817002</v>
+        <v>18.817001999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.553000</v>
+        <v>961.553</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.845000</v>
+        <v>-76.844999999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>67752.114622</v>
+        <v>67752.114621999994</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.820032</v>
+        <v>18.820032000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.608000</v>
+        <v>966.60799999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.941000</v>
+        <v>-74.941000000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>67762.606032</v>
+        <v>67762.606031999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.822946</v>
+        <v>18.822946000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.384000</v>
+        <v>974.38400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.544800</v>
+        <v>-79.544799999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>67773.289331</v>
+        <v>67773.289331000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.825914</v>
+        <v>18.825914000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.670000</v>
+        <v>982.67</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.987300</v>
+        <v>-90.987300000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>67784.288122</v>
+        <v>67784.288121999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.828969</v>
+        <v>18.828969000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.647000</v>
+        <v>992.64700000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.472000</v>
+        <v>-108.47199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>67795.419870</v>
+        <v>67795.419869999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.832061</v>
+        <v>18.832060999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.931000</v>
+        <v>-123.931</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>67806.368559</v>
+        <v>67806.368558999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.835102</v>
+        <v>18.835101999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.830000</v>
+        <v>1039.83</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.057000</v>
+        <v>-195.05699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>67817.499272</v>
+        <v>67817.499272000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.838194</v>
+        <v>18.838194000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.887000</v>
+        <v>-309.887</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>67828.486293</v>
+        <v>67828.486292999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.841246</v>
+        <v>18.841246000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-489.460000</v>
+        <v>-489.46</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>67838.888717</v>
+        <v>67838.888716999994</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.844136</v>
+        <v>18.844135999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="BV8" s="1">
-        <v>-685.198000</v>
+        <v>-685.19799999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>67849.657891</v>
+        <v>67849.657890999995</v>
       </c>
       <c r="BY8" s="1">
         <v>18.847127</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA8" s="1">
-        <v>-893.467000</v>
+        <v>-893.46699999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>67861.318302</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.850366</v>
+        <v>18.850366000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1820.920000</v>
+        <v>1820.92</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1385.400000</v>
+        <v>-1385.4</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>67689.828017</v>
+        <v>67689.828017000007</v>
       </c>
       <c r="B9" s="1">
-        <v>18.802730</v>
+        <v>18.80273</v>
       </c>
       <c r="C9" s="1">
-        <v>900.719000</v>
+        <v>900.71900000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-188.518000</v>
+        <v>-188.518</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>67699.931028</v>
+        <v>67699.931028000006</v>
       </c>
       <c r="G9" s="1">
         <v>18.805536</v>
       </c>
       <c r="H9" s="1">
-        <v>916.773000</v>
+        <v>916.77300000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-160.365000</v>
+        <v>-160.36500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>67710.366854</v>
+        <v>67710.366854000007</v>
       </c>
       <c r="L9" s="1">
-        <v>18.808435</v>
+        <v>18.808434999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>939.450000</v>
+        <v>939.45</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.205000</v>
+        <v>-116.205</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>67720.913288</v>
+        <v>67720.913287999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.811365</v>
+        <v>18.811364999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.368000</v>
+        <v>946.36800000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.455000</v>
+        <v>-101.455</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>67731.118507</v>
+        <v>67731.118507000007</v>
       </c>
       <c r="V9" s="1">
-        <v>18.814200</v>
+        <v>18.8142</v>
       </c>
       <c r="W9" s="1">
-        <v>953.606000</v>
+        <v>953.60599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.627500</v>
+        <v>-87.627499999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>67741.586540</v>
+        <v>67741.586540000004</v>
       </c>
       <c r="AA9" s="1">
         <v>18.817107</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.586000</v>
+        <v>961.58600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.853000</v>
+        <v>-76.852999999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>67752.456862</v>
+        <v>67752.456862000006</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.820127</v>
+        <v>18.820126999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.777000</v>
+        <v>966.77700000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.858900</v>
+        <v>-74.858900000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>67762.957698</v>
+        <v>67762.957697999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.823044</v>
+        <v>18.823043999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.364000</v>
+        <v>974.36400000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.556700</v>
+        <v>-79.556700000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>67773.648931</v>
+        <v>67773.648931000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.826014</v>
+        <v>18.826014000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.669000</v>
+        <v>982.66899999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.002300</v>
+        <v>-91.002300000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>67784.710739</v>
+        <v>67784.710739000002</v>
       </c>
       <c r="AU9" s="1">
         <v>18.829086</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.668000</v>
+        <v>992.66800000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>67795.717957</v>
+        <v>67795.717957000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>18.832144</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.934000</v>
+        <v>-123.934</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>67806.687943</v>
+        <v>67806.687942999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.835191</v>
+        <v>18.835190999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1039.830000</v>
+        <v>1039.83</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.049000</v>
+        <v>-195.04900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>67817.903793</v>
+        <v>67817.903793000005</v>
       </c>
       <c r="BJ9" s="1">
         <v>18.838307</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.777000</v>
+        <v>-309.77699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>67828.881929</v>
+        <v>67828.881928999996</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.841356</v>
+        <v>18.841356000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.300000</v>
+        <v>1215.3</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-489.483000</v>
+        <v>-489.483</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>67839.302043</v>
+        <v>67839.302043000003</v>
       </c>
       <c r="BT9" s="1">
         <v>18.844251</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.720000</v>
+        <v>1336.72</v>
       </c>
       <c r="BV9" s="1">
-        <v>-685.249000</v>
+        <v>-685.24900000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>67850.077010</v>
+        <v>67850.077009999994</v>
       </c>
       <c r="BY9" s="1">
         <v>18.847244</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-893.374000</v>
+        <v>-893.37400000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>67861.857956</v>
+        <v>67861.857956000007</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.850516</v>
+        <v>18.850515999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.220000</v>
+        <v>1822.22</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1385.940000</v>
+        <v>-1385.94</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>67690.171281</v>
+        <v>67690.171281000003</v>
       </c>
       <c r="B10" s="1">
-        <v>18.802825</v>
+        <v>18.802824999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>900.809000</v>
+        <v>900.80899999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-188.516000</v>
+        <v>-188.51599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>67700.583797</v>
+        <v>67700.583796999999</v>
       </c>
       <c r="G10" s="1">
-        <v>18.805718</v>
+        <v>18.805717999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.259000</v>
+        <v>917.25900000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.086000</v>
+        <v>-161.08600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>67710.739349</v>
+        <v>67710.739348999996</v>
       </c>
       <c r="L10" s="1">
         <v>18.808539</v>
       </c>
       <c r="M10" s="1">
-        <v>939.457000</v>
+        <v>939.45699999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.047000</v>
+        <v>-116.047</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>67721.293719</v>
+        <v>67721.293718999994</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.811470</v>
+        <v>18.81147</v>
       </c>
       <c r="R10" s="1">
-        <v>946.307000</v>
+        <v>946.30700000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.480000</v>
+        <v>-101.48</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>67731.467658</v>
+        <v>67731.467657999994</v>
       </c>
       <c r="V10" s="1">
         <v>18.814297</v>
       </c>
       <c r="W10" s="1">
-        <v>953.642000</v>
+        <v>953.64200000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.657200</v>
+        <v>-87.657200000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>67741.968000</v>
+        <v>67741.967999999993</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.817213</v>
+        <v>18.817212999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.544000</v>
+        <v>961.54399999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.830300</v>
+        <v>-76.830299999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>67752.800094</v>
+        <v>67752.800094000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.820222</v>
+        <v>18.820222000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.703000</v>
+        <v>966.70299999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.812900</v>
+        <v>-74.812899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>67763.379263</v>
+        <v>67763.379262999995</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.823161</v>
+        <v>18.823160999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.368000</v>
+        <v>974.36800000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.570800</v>
+        <v>-79.570800000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>67774.069077</v>
+        <v>67774.069076999993</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.826130</v>
+        <v>18.826129999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.682000</v>
+        <v>982.68200000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.993700</v>
+        <v>-90.993700000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>67785.016771</v>
+        <v>67785.016770999995</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.829171</v>
+        <v>18.829170999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.650000</v>
+        <v>992.65</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.472000</v>
+        <v>-108.47199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>67796.078518</v>
+        <v>67796.078517999995</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.832244</v>
+        <v>18.832243999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.940000</v>
+        <v>-123.94</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>67807.047047</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.835291</v>
+        <v>18.835291000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1039.800000</v>
+        <v>1039.8</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.050000</v>
+        <v>-195.05</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>67818.267543</v>
+        <v>67818.267542999994</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.838408</v>
+        <v>18.838408000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.856000</v>
+        <v>-309.85599999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>67829.304520</v>
+        <v>67829.304520000005</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.841473</v>
+        <v>18.841473000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-489.457000</v>
+        <v>-489.45699999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>67839.738860</v>
+        <v>67839.738859999998</v>
       </c>
       <c r="BT10" s="1">
         <v>18.844372</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.730000</v>
+        <v>1336.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-685.234000</v>
+        <v>-685.23400000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>67850.521389</v>
+        <v>67850.521389000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.847367</v>
+        <v>18.847366999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.320000</v>
+        <v>1471.32</v>
       </c>
       <c r="CA10" s="1">
-        <v>-893.417000</v>
+        <v>-893.41700000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>67862.398094</v>
+        <v>67862.398094000004</v>
       </c>
       <c r="CD10" s="1">
         <v>18.850666</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.010000</v>
+        <v>1821.01</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1384.750000</v>
+        <v>-1384.75</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>67690.891441</v>
       </c>
       <c r="B11" s="1">
-        <v>18.803025</v>
+        <v>18.803025000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>900.900000</v>
+        <v>900.9</v>
       </c>
       <c r="D11" s="1">
-        <v>-188.409000</v>
+        <v>-188.40899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>67700.967170</v>
+        <v>67700.967170000004</v>
       </c>
       <c r="G11" s="1">
-        <v>18.805824</v>
+        <v>18.805824000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>916.755000</v>
+        <v>916.755</v>
       </c>
       <c r="I11" s="1">
-        <v>-160.473000</v>
+        <v>-160.47300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>67711.085062</v>
+        <v>67711.085061999998</v>
       </c>
       <c r="L11" s="1">
-        <v>18.808635</v>
+        <v>18.808634999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.318000</v>
+        <v>939.31799999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.186000</v>
+        <v>-116.18600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>67721.639928</v>
+        <v>67721.639928000004</v>
       </c>
       <c r="Q11" s="1">
         <v>18.811567</v>
       </c>
       <c r="R11" s="1">
-        <v>946.366000</v>
+        <v>946.36599999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.444000</v>
+        <v>-101.444</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>67731.810426</v>
+        <v>67731.810425999996</v>
       </c>
       <c r="V11" s="1">
-        <v>18.814392</v>
+        <v>18.814392000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>953.590000</v>
+        <v>953.59</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.650700</v>
+        <v>-87.650700000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>67742.285405</v>
+        <v>67742.285405000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.817302</v>
+        <v>18.817302000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.561000</v>
+        <v>961.56100000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.810500</v>
+        <v>-76.810500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>67753.232605</v>
+        <v>67753.232604999997</v>
       </c>
       <c r="AF11" s="1">
         <v>18.820342</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.764000</v>
+        <v>966.76400000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.811900</v>
+        <v>-74.811899999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>67763.656041</v>
+        <v>67763.656040999995</v>
       </c>
       <c r="AK11" s="1">
         <v>18.823238</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.407000</v>
+        <v>974.40700000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.561100</v>
+        <v>-79.561099999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>67774.367634</v>
+        <v>67774.367633999995</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.826213</v>
+        <v>18.826212999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.655000</v>
+        <v>982.65499999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.992200</v>
+        <v>-90.992199999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>67785.380837</v>
+        <v>67785.380837000004</v>
       </c>
       <c r="AU11" s="1">
         <v>18.829272</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.663000</v>
+        <v>992.66300000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.491000</v>
+        <v>-108.491</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>67796.434676</v>
+        <v>67796.434676000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.832343</v>
+        <v>18.832343000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.952000</v>
+        <v>-123.952</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>67807.408134</v>
+        <v>67807.408133999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.835391</v>
+        <v>18.835391000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.057000</v>
+        <v>-195.05699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>67819.024935</v>
+        <v>67819.024934999994</v>
       </c>
       <c r="BJ11" s="1">
         <v>18.838618</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.820000</v>
+        <v>1106.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.790000</v>
+        <v>-309.79000000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>67829.699864</v>
+        <v>67829.699863999995</v>
       </c>
       <c r="BO11" s="1">
         <v>18.841583</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.300000</v>
+        <v>1215.3</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-489.451000</v>
+        <v>-489.45100000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>67840.169387</v>
+        <v>67840.169387000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.844491</v>
+        <v>18.844491000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.680000</v>
+        <v>1336.68</v>
       </c>
       <c r="BV11" s="1">
-        <v>-685.190000</v>
+        <v>-685.19</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>67850.941996</v>
+        <v>67850.941995999994</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.847484</v>
+        <v>18.847484000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA11" s="1">
-        <v>-893.427000</v>
+        <v>-893.42700000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>67863.241787</v>
+        <v>67863.241787000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.850900</v>
+        <v>18.850899999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1822.370000</v>
+        <v>1822.37</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1385.250000</v>
+        <v>-1385.25</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>67691.201937</v>
+        <v>67691.201937000005</v>
       </c>
       <c r="B12" s="1">
-        <v>18.803112</v>
+        <v>18.803111999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>900.871000</v>
+        <v>900.87099999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-188.500000</v>
+        <v>-188.5</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>67701.313387</v>
+        <v>67701.313387000002</v>
       </c>
       <c r="G12" s="1">
-        <v>18.805920</v>
+        <v>18.80592</v>
       </c>
       <c r="H12" s="1">
-        <v>917.254000</v>
+        <v>917.25400000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-160.557000</v>
+        <v>-160.55699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>67711.429285</v>
+        <v>67711.429285000006</v>
       </c>
       <c r="L12" s="1">
-        <v>18.808730</v>
+        <v>18.808730000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>939.324000</v>
+        <v>939.32399999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.039000</v>
+        <v>-116.039</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>67721.989110</v>
+        <v>67721.989109999995</v>
       </c>
       <c r="Q12" s="1">
         <v>18.811664</v>
       </c>
       <c r="R12" s="1">
-        <v>946.397000</v>
+        <v>946.39700000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.419000</v>
+        <v>-101.419</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>67732.223065</v>
+        <v>67732.223064999998</v>
       </c>
       <c r="V12" s="1">
-        <v>18.814506</v>
+        <v>18.814506000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>953.653000</v>
+        <v>953.65300000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.573300</v>
+        <v>-87.573300000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>67742.985755</v>
+        <v>67742.985755000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.817496</v>
+        <v>18.817495999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.520000</v>
+        <v>961.52</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.877200</v>
+        <v>-76.877200000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>67753.508388</v>
+        <v>67753.508388000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.820419</v>
+        <v>18.820419000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.904000</v>
+        <v>966.904</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.774700</v>
+        <v>-74.774699999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>67764.002271</v>
+        <v>67764.002271000005</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.823334</v>
+        <v>18.823333999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.395000</v>
+        <v>974.39499999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.561700</v>
+        <v>-79.561700000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>67774.730705</v>
+        <v>67774.730704999994</v>
       </c>
       <c r="AP12" s="1">
         <v>18.826314</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.671000</v>
+        <v>982.67100000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.977500</v>
+        <v>-90.977500000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>67785.747383</v>
+        <v>67785.747382999994</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.829374</v>
+        <v>18.829374000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.659000</v>
+        <v>992.65899999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.462000</v>
+        <v>-108.462</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>67797.158316</v>
+        <v>67797.158316000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.832544</v>
+        <v>18.832543999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.926000</v>
+        <v>-123.926</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>67808.129812</v>
+        <v>67808.129811999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.835592</v>
+        <v>18.835591999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1039.800000</v>
+        <v>1039.8</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.046000</v>
+        <v>-195.04599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>67819.404374</v>
+        <v>67819.404374000005</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.838723</v>
+        <v>18.838723000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.872000</v>
+        <v>-309.87200000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>67830.125400</v>
+        <v>67830.125400000004</v>
       </c>
       <c r="BO12" s="1">
         <v>18.841701</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-489.444000</v>
+        <v>-489.44400000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>67840.580075</v>
+        <v>67840.580075000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.844606</v>
+        <v>18.844605999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.680000</v>
+        <v>1336.68</v>
       </c>
       <c r="BV12" s="1">
-        <v>-685.220000</v>
+        <v>-685.22</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>67851.672144</v>
+        <v>67851.672143999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.847687</v>
+        <v>18.847687000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA12" s="1">
-        <v>-893.331000</v>
+        <v>-893.33100000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>67863.476395</v>
+        <v>67863.476395000005</v>
       </c>
       <c r="CD12" s="1">
         <v>18.850966</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.460000</v>
+        <v>1822.46</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1385.140000</v>
+        <v>-1385.14</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>67691.566533</v>
+        <v>67691.566533000005</v>
       </c>
       <c r="B13" s="1">
         <v>18.803213</v>
       </c>
       <c r="C13" s="1">
-        <v>900.827000</v>
+        <v>900.827</v>
       </c>
       <c r="D13" s="1">
-        <v>-188.416000</v>
+        <v>-188.416</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>67701.655123</v>
+        <v>67701.655123000004</v>
       </c>
       <c r="G13" s="1">
-        <v>18.806015</v>
+        <v>18.806014999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>916.804000</v>
+        <v>916.80399999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-160.869000</v>
+        <v>-160.869</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>67711.865268</v>
+        <v>67711.865267999994</v>
       </c>
       <c r="L13" s="1">
-        <v>18.808851</v>
+        <v>18.808851000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.375000</v>
+        <v>939.375</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.137000</v>
+        <v>-116.137</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>67722.405787</v>
+        <v>67722.405786999996</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.811779</v>
+        <v>18.811779000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>946.414000</v>
+        <v>946.41399999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.399000</v>
+        <v>-101.399</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>67732.502809</v>
+        <v>67732.502808999998</v>
       </c>
       <c r="V13" s="1">
         <v>18.814584</v>
       </c>
       <c r="W13" s="1">
-        <v>953.593000</v>
+        <v>953.59299999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.658700</v>
+        <v>-87.658699999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>67743.331002</v>
+        <v>67743.331002000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.817592</v>
+        <v>18.817592000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.538000</v>
+        <v>961.53800000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.796400</v>
+        <v>-76.796400000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>67753.852619</v>
+        <v>67753.852618999998</v>
       </c>
       <c r="AF13" s="1">
         <v>18.820515</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.766000</v>
+        <v>966.76599999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.808200</v>
+        <v>-74.808199999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>67764.350430</v>
+        <v>67764.350430000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.823431</v>
+        <v>18.823430999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.375000</v>
+        <v>974.375</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.579600</v>
+        <v>-79.579599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>67775.090306</v>
+        <v>67775.090305999998</v>
       </c>
       <c r="AP13" s="1">
         <v>18.826414</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.675000</v>
+        <v>982.67499999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.984400</v>
+        <v>-90.984399999999994</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>67786.475010</v>
+        <v>67786.475009999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.829576</v>
+        <v>18.829575999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.641000</v>
+        <v>992.64099999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.467000</v>
+        <v>-108.467</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>67797.535300</v>
+        <v>67797.535300000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>18.832649</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.939000</v>
+        <v>-123.93899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>67808.521653</v>
+        <v>67808.521653000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.835700</v>
+        <v>18.835699999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.038000</v>
+        <v>-195.03800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>67819.780851</v>
+        <v>67819.780851000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.838828</v>
+        <v>18.838827999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.797000</v>
+        <v>-309.79700000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>67830.827734</v>
+        <v>67830.827734000006</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.841897</v>
+        <v>18.841896999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-489.451000</v>
+        <v>-489.45100000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>67841.324074</v>
+        <v>67841.324074000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.844812</v>
+        <v>18.844812000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.650000</v>
+        <v>1336.65</v>
       </c>
       <c r="BV13" s="1">
-        <v>-685.149000</v>
+        <v>-685.149</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>67851.846699</v>
+        <v>67851.846699000002</v>
       </c>
       <c r="BY13" s="1">
         <v>18.847735</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.220000</v>
+        <v>1471.22</v>
       </c>
       <c r="CA13" s="1">
-        <v>-893.395000</v>
+        <v>-893.39499999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>67863.997691</v>
+        <v>67863.997690999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.851110</v>
+        <v>18.851109999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1821.130000</v>
+        <v>1821.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1384.510000</v>
+        <v>-1384.51</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>67691.988127</v>
+        <v>67691.988127000004</v>
       </c>
       <c r="B14" s="1">
-        <v>18.803330</v>
+        <v>18.803329999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>900.891000</v>
+        <v>900.89099999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-188.586000</v>
+        <v>-188.58600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>67702.069810</v>
+        <v>67702.069810000001</v>
       </c>
       <c r="G14" s="1">
-        <v>18.806131</v>
+        <v>18.806131000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>917.259000</v>
+        <v>917.25900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-160.645000</v>
+        <v>-160.64500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>67712.143557</v>
+        <v>67712.143557000003</v>
       </c>
       <c r="L14" s="1">
-        <v>18.808929</v>
+        <v>18.808928999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>939.225000</v>
+        <v>939.22500000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-115.997000</v>
+        <v>-115.997</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>67722.693429</v>
+        <v>67722.693429000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.811859</v>
+        <v>18.811858999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>946.446000</v>
+        <v>946.44600000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.376000</v>
+        <v>-101.376</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>67732.847034</v>
+        <v>67732.847034000006</v>
       </c>
       <c r="V14" s="1">
-        <v>18.814680</v>
+        <v>18.814679999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>953.623000</v>
+        <v>953.62300000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.621200</v>
+        <v>-87.621200000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>67743.678667</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.817689</v>
+        <v>18.817689000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.577000</v>
+        <v>961.577</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.808500</v>
+        <v>-76.808499999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>67754.200299</v>
+        <v>67754.200299000004</v>
       </c>
       <c r="AF14" s="1">
         <v>18.820611</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.830000</v>
+        <v>966.83</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.814700</v>
+        <v>-74.814700000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>67765.049789</v>
+        <v>67765.049788999997</v>
       </c>
       <c r="AK14" s="1">
         <v>18.823625</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.352000</v>
+        <v>974.35199999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.556200</v>
+        <v>-79.556200000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>67775.809542</v>
+        <v>67775.809542000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.826614</v>
+        <v>18.826613999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.683000</v>
+        <v>982.68299999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.998000</v>
+        <v>-90.998000000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>67786.867312</v>
+        <v>67786.867312000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.829685</v>
+        <v>18.829685000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.639000</v>
+        <v>992.63900000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>67797.913218</v>
+        <v>67797.913218000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.832754</v>
+        <v>18.832754000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.945000</v>
+        <v>-123.94499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>67808.881251</v>
+        <v>67808.881250999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.835800</v>
+        <v>18.835799999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.034000</v>
+        <v>-195.03399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>67820.452918</v>
+        <v>67820.452917999995</v>
       </c>
       <c r="BJ14" s="1">
         <v>18.839015</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.845000</v>
+        <v>-309.84500000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>67830.939366</v>
+        <v>67830.939366000006</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.841928</v>
+        <v>18.841927999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-489.461000</v>
+        <v>-489.46100000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>67841.439145</v>
+        <v>67841.439144999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.844844</v>
+        <v>18.844843999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.630000</v>
+        <v>1336.63</v>
       </c>
       <c r="BV14" s="1">
-        <v>-685.180000</v>
+        <v>-685.18</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>67852.271307</v>
+        <v>67852.271307000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.847853</v>
+        <v>18.847853000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA14" s="1">
-        <v>-893.370000</v>
+        <v>-893.37</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>67864.514522</v>
+        <v>67864.514521999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.851254</v>
+        <v>18.851254000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.580000</v>
+        <v>1821.58</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1384.510000</v>
+        <v>-1384.51</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>67692.267872</v>
+        <v>67692.267871999997</v>
       </c>
       <c r="B15" s="1">
-        <v>18.803408</v>
+        <v>18.803408000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>900.633000</v>
+        <v>900.63300000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-188.474000</v>
+        <v>-188.47399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>67702.347052</v>
+        <v>67702.347051999997</v>
       </c>
       <c r="G15" s="1">
-        <v>18.806208</v>
+        <v>18.806208000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>917.181000</v>
+        <v>917.18100000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-160.690000</v>
+        <v>-160.69</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>67712.488771</v>
+        <v>67712.488771000004</v>
       </c>
       <c r="L15" s="1">
-        <v>18.809025</v>
+        <v>18.809024999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>939.389000</v>
+        <v>939.38900000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.037000</v>
+        <v>-116.03700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>67723.046614</v>
+        <v>67723.046614000006</v>
       </c>
       <c r="Q15" s="1">
         <v>18.811957</v>
       </c>
       <c r="R15" s="1">
-        <v>946.355000</v>
+        <v>946.35500000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.447000</v>
+        <v>-101.447</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>67733.191287</v>
+        <v>67733.191286999994</v>
       </c>
       <c r="V15" s="1">
-        <v>18.814775</v>
+        <v>18.814775000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.504000</v>
+        <v>953.50400000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.527300</v>
+        <v>-87.527299999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>67744.376537</v>
+        <v>67744.376537000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.817882</v>
+        <v>18.817882000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.570000</v>
+        <v>961.57</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.821400</v>
+        <v>-76.821399999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>67754.882795</v>
+        <v>67754.882794999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.820801</v>
+        <v>18.820800999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.772000</v>
+        <v>966.77200000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.792000</v>
+        <v>-74.792000000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>67765.399468</v>
+        <v>67765.399468000003</v>
       </c>
       <c r="AK15" s="1">
         <v>18.823722</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.352000</v>
+        <v>974.35199999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.549900</v>
+        <v>-79.549899999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>67776.233620</v>
+        <v>67776.233619999999</v>
       </c>
       <c r="AP15" s="1">
         <v>18.826732</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.661000</v>
+        <v>982.66099999999994</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.974100</v>
+        <v>-90.974100000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>67787.232368</v>
+        <v>67787.232367999997</v>
       </c>
       <c r="AU15" s="1">
         <v>18.829787</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.650000</v>
+        <v>992.65</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.457000</v>
+        <v>-108.45699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>67798.578849</v>
+        <v>67798.578848999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>18.832939</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.927000</v>
+        <v>-123.92700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>67809.547380</v>
+        <v>67809.547380000004</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.835985</v>
+        <v>18.835985000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.043000</v>
+        <v>-195.04300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>67820.564022</v>
+        <v>67820.564022000006</v>
       </c>
       <c r="BJ15" s="1">
         <v>18.839046</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.870000</v>
+        <v>1106.8699999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.821000</v>
+        <v>-309.82100000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>67831.362422</v>
+        <v>67831.362422000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.842045</v>
+        <v>18.842044999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.280000</v>
+        <v>1215.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-489.458000</v>
+        <v>-489.45800000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>67841.881112</v>
+        <v>67841.881112000003</v>
       </c>
       <c r="BT15" s="1">
         <v>18.844967</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.570000</v>
+        <v>1336.57</v>
       </c>
       <c r="BV15" s="1">
-        <v>-685.119000</v>
+        <v>-685.11900000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>67852.718667</v>
+        <v>67852.718666999994</v>
       </c>
       <c r="BY15" s="1">
         <v>18.847977</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA15" s="1">
-        <v>-893.432000</v>
+        <v>-893.43200000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>67865.066217</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.851407</v>
+        <v>18.851406999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1822.350000</v>
+        <v>1822.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1385.030000</v>
+        <v>-1385.03</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>67692.609582</v>
+        <v>67692.609582000005</v>
       </c>
       <c r="B16" s="1">
-        <v>18.803503</v>
+        <v>18.803502999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>900.907000</v>
+        <v>900.90700000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-188.552000</v>
+        <v>-188.55199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>67702.692788</v>
       </c>
       <c r="G16" s="1">
-        <v>18.806304</v>
+        <v>18.806304000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.768000</v>
+        <v>916.76800000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-160.339000</v>
+        <v>-160.339</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>67712.834452</v>
+        <v>67712.834451999996</v>
       </c>
       <c r="L16" s="1">
-        <v>18.809121</v>
+        <v>18.809121000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>939.270000</v>
+        <v>939.27</v>
       </c>
       <c r="N16" s="1">
-        <v>-115.946000</v>
+        <v>-115.946</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>67723.396260</v>
+        <v>67723.396259999994</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.812055</v>
+        <v>18.812055000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.372000</v>
+        <v>946.37199999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.372000</v>
+        <v>-101.372</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>67733.877940</v>
+        <v>67733.877940000006</v>
       </c>
       <c r="V16" s="1">
-        <v>18.814966</v>
+        <v>18.814965999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>953.473000</v>
+        <v>953.47299999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.592900</v>
+        <v>-87.5929</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>67744.726992</v>
+        <v>67744.726991999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.817980</v>
+        <v>18.817979999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.580000</v>
+        <v>961.58</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.770500</v>
+        <v>-76.770499999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>67755.227018</v>
+        <v>67755.227018000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.820896</v>
+        <v>18.820896000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.779000</v>
+        <v>966.779</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.855400</v>
+        <v>-74.855400000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>67765.747165</v>
+        <v>67765.747164999993</v>
       </c>
       <c r="AK16" s="1">
         <v>18.823819</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.369000</v>
+        <v>974.36900000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.557100</v>
+        <v>-79.557100000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>67776.843699</v>
+        <v>67776.843699000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.826901</v>
+        <v>18.826900999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.676000</v>
+        <v>982.67600000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.035700</v>
+        <v>-91.035700000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>67787.904975</v>
+        <v>67787.904974999998</v>
       </c>
       <c r="AU16" s="1">
         <v>18.829974</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.653000</v>
+        <v>992.65300000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.471000</v>
+        <v>-108.471</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>67798.996482</v>
+        <v>67798.996482000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.833055</v>
+        <v>18.833055000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.938000</v>
+        <v>-123.938</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>67809.968482</v>
+        <v>67809.968481999997</v>
       </c>
       <c r="BE16" s="1">
         <v>18.836102</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.800000</v>
+        <v>1039.8</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.065000</v>
+        <v>-195.065</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>67820.937508</v>
+        <v>67820.937508000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.839149</v>
+        <v>18.839148999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.849000</v>
+        <v>-309.84899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>67831.759223</v>
+        <v>67831.759223000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.842155</v>
+        <v>18.842155000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-489.456000</v>
+        <v>-489.45600000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>67842.289819</v>
+        <v>67842.289818999998</v>
       </c>
       <c r="BT16" s="1">
         <v>18.845081</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.580000</v>
+        <v>1336.58</v>
       </c>
       <c r="BV16" s="1">
-        <v>-685.158000</v>
+        <v>-685.15800000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>67853.149194</v>
+        <v>67853.149193999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.848097</v>
+        <v>18.848096999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA16" s="1">
-        <v>-893.337000</v>
+        <v>-893.33699999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>67865.593817</v>
+        <v>67865.593817000001</v>
       </c>
       <c r="CD16" s="1">
         <v>18.851554</v>
       </c>
       <c r="CE16" s="1">
-        <v>1820.970000</v>
+        <v>1820.97</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1384.600000</v>
+        <v>-1384.6</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>67692.952813</v>
+        <v>67692.952812999996</v>
       </c>
       <c r="B17" s="1">
-        <v>18.803598</v>
+        <v>18.803598000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>900.607000</v>
+        <v>900.60699999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-188.763000</v>
+        <v>-188.76300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>67703.037473</v>
+        <v>67703.037473000004</v>
       </c>
       <c r="G17" s="1">
-        <v>18.806399</v>
+        <v>18.806398999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.089000</v>
+        <v>917.08900000000006</v>
       </c>
       <c r="I17" s="1">
-        <v>-160.765000</v>
+        <v>-160.76499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>67713.524418</v>
+        <v>67713.524418000001</v>
       </c>
       <c r="L17" s="1">
-        <v>18.809312</v>
+        <v>18.809311999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>939.372000</v>
+        <v>939.37199999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.017000</v>
+        <v>-116.017</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>67724.090692</v>
+        <v>67724.090691999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.812247</v>
+        <v>18.812246999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.395000</v>
+        <v>946.39499999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.369000</v>
+        <v>-101.369</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>67734.220951</v>
+        <v>67734.220950999996</v>
       </c>
       <c r="V17" s="1">
         <v>18.815061</v>
       </c>
       <c r="W17" s="1">
-        <v>953.602000</v>
+        <v>953.60199999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.634600</v>
+        <v>-87.634600000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>67745.074904</v>
+        <v>67745.074903999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.818076</v>
+        <v>18.818076000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.573000</v>
+        <v>961.57299999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.833800</v>
+        <v>-76.833799999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>67755.570251</v>
+        <v>67755.570250999997</v>
       </c>
       <c r="AF17" s="1">
         <v>18.820992</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.656000</v>
+        <v>966.65599999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.813900</v>
+        <v>-74.813900000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>67766.398943</v>
+        <v>67766.398942999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.824000</v>
+        <v>18.824000000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.370000</v>
+        <v>974.37</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.569400</v>
+        <v>-79.569400000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>67777.270260</v>
+        <v>67777.270260000005</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.827020</v>
+        <v>18.827020000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.665000</v>
+        <v>982.66499999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.990300</v>
+        <v>-90.990300000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>67788.360308</v>
+        <v>67788.360308000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.830100</v>
+        <v>18.830100000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.650000</v>
+        <v>992.65</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>67799.371457</v>
+        <v>67799.371457000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.833159</v>
+        <v>18.833158999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.944000</v>
+        <v>-123.944</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>67810.356354</v>
+        <v>67810.356354000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.836210</v>
+        <v>18.836210000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.046000</v>
+        <v>-195.04599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>67821.311492</v>
+        <v>67821.311491999993</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.839253</v>
+        <v>18.839252999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.860000</v>
+        <v>1106.8599999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.812000</v>
+        <v>-309.81200000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>67832.184294</v>
+        <v>67832.184294000006</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.842273</v>
+        <v>18.842272999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-489.433000</v>
+        <v>-489.43299999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>67842.722327</v>
+        <v>67842.722326999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.845201</v>
+        <v>18.845200999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="BV17" s="1">
-        <v>-685.105000</v>
+        <v>-685.10500000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>67853.569802</v>
+        <v>67853.569801999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.848214</v>
+        <v>18.848213999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-893.442000</v>
+        <v>-893.44200000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>67866.113128</v>
+        <v>67866.113127999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.851698</v>
+        <v>18.851697999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1820.900000</v>
+        <v>1820.9</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1386.000000</v>
+        <v>-1386</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>67693.633324</v>
+        <v>67693.633323999995</v>
       </c>
       <c r="B18" s="1">
         <v>18.803787</v>
       </c>
       <c r="C18" s="1">
-        <v>900.805000</v>
+        <v>900.80499999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-188.694000</v>
+        <v>-188.69399999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>67703.725456</v>
       </c>
       <c r="G18" s="1">
-        <v>18.806590</v>
+        <v>18.80659</v>
       </c>
       <c r="H18" s="1">
-        <v>917.227000</v>
+        <v>917.22699999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-160.806000</v>
+        <v>-160.80600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>67713.870134</v>
+        <v>67713.870133999997</v>
       </c>
       <c r="L18" s="1">
-        <v>18.809408</v>
+        <v>18.809408000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.415000</v>
+        <v>939.41499999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.184000</v>
+        <v>-116.184</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>67724.438851</v>
+        <v>67724.438850999999</v>
       </c>
       <c r="Q18" s="1">
         <v>18.812344</v>
       </c>
       <c r="R18" s="1">
-        <v>946.407000</v>
+        <v>946.40700000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.413000</v>
+        <v>-101.413</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>67734.563226</v>
+        <v>67734.563225999998</v>
       </c>
       <c r="V18" s="1">
-        <v>18.815156</v>
+        <v>18.815156000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>953.502000</v>
+        <v>953.50199999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.711800</v>
+        <v>-87.711799999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>67745.739579</v>
+        <v>67745.739579000001</v>
       </c>
       <c r="AA18" s="1">
         <v>18.818261</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.590000</v>
+        <v>961.59</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.915900</v>
+        <v>-76.915899999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>67756.217566</v>
+        <v>67756.217566000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.821172</v>
+        <v>18.821172000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.724000</v>
+        <v>966.72400000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.841200</v>
+        <v>-74.841200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>67766.789259</v>
+        <v>67766.789258999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.824108</v>
+        <v>18.824107999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.372000</v>
+        <v>974.37199999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.551900</v>
+        <v>-79.551900000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>67777.630352</v>
+        <v>67777.630351999993</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.827120</v>
+        <v>18.827120000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.691000</v>
+        <v>982.69100000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.984900</v>
+        <v>-90.984899999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>67788.723095</v>
+        <v>67788.723094999994</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.830201</v>
+        <v>18.830200999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.641000</v>
+        <v>992.64099999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>67799.750927</v>
+        <v>67799.750927000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>18.833264</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.956000</v>
+        <v>-123.956</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>67810.953538</v>
+        <v>67810.953538000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.836376</v>
+        <v>18.836376000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.068000</v>
+        <v>-195.06800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>67821.738548</v>
+        <v>67821.738547999994</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.839372</v>
+        <v>18.839372000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.859000</v>
+        <v>-309.85899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>67832.578116</v>
+        <v>67832.578116000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.842383</v>
+        <v>18.842383000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-489.460000</v>
+        <v>-489.46</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>67843.147367</v>
+        <v>67843.147366999998</v>
       </c>
       <c r="BT18" s="1">
         <v>18.845319</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV18" s="1">
-        <v>-685.143000</v>
+        <v>-685.14300000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>67853.992888</v>
+        <v>67853.992887999993</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.848331</v>
+        <v>18.848331000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA18" s="1">
-        <v>-893.429000</v>
+        <v>-893.42899999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>67866.630952</v>
+        <v>67866.630952000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.851842</v>
+        <v>18.851842000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1822.190000</v>
+        <v>1822.19</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1385.610000</v>
+        <v>-1385.61</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>67693.977579</v>
+        <v>67693.977578999999</v>
       </c>
       <c r="B19" s="1">
-        <v>18.803883</v>
+        <v>18.803882999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>900.917000</v>
+        <v>900.91700000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-188.473000</v>
+        <v>-188.47300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>67704.068674</v>
+        <v>67704.068673999995</v>
       </c>
       <c r="G19" s="1">
-        <v>18.806686</v>
+        <v>18.806685999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.121000</v>
+        <v>917.12099999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-160.670000</v>
+        <v>-160.66999999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>67714.218817</v>
+        <v>67714.218817000001</v>
       </c>
       <c r="L19" s="1">
-        <v>18.809505</v>
+        <v>18.809505000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>939.398000</v>
+        <v>939.39800000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.044000</v>
+        <v>-116.044</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>67724.866900</v>
+        <v>67724.866899999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.812463</v>
+        <v>18.812463000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.388000</v>
+        <v>946.38800000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.380000</v>
+        <v>-101.38</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>67735.223365</v>
+        <v>67735.223364999998</v>
       </c>
       <c r="V19" s="1">
-        <v>18.815340</v>
+        <v>18.815339999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>953.511000</v>
+        <v>953.51099999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.664700</v>
+        <v>-87.664699999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>67746.116998</v>
+        <v>67746.116997999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.818366</v>
+        <v>18.818366000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.578000</v>
+        <v>961.57799999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.838700</v>
+        <v>-76.838700000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>67756.600441</v>
+        <v>67756.600441000002</v>
       </c>
       <c r="AF19" s="1">
         <v>18.821278</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.774000</v>
+        <v>966.774</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.828500</v>
+        <v>-74.828500000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>67767.141915</v>
@@ -4955,1101 +5371,1101 @@
         <v>18.824206</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.371000</v>
+        <v>974.37099999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.555000</v>
+        <v>-79.555000000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>67777.990716</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.827220</v>
+        <v>18.827220000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.648000</v>
+        <v>982.64800000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.995800</v>
+        <v>-90.995800000000003</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>67789.081982</v>
+        <v>67789.081982000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.830301</v>
+        <v>18.830300999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.646000</v>
+        <v>992.64599999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.465000</v>
+        <v>-108.465</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>67800.164063</v>
+        <v>67800.164063000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.833379</v>
+        <v>18.833379000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.937000</v>
+        <v>-123.937</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>67811.077536</v>
+        <v>67811.077535999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.836410</v>
+        <v>18.836410000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.038000</v>
+        <v>-195.03800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>67822.062930</v>
+        <v>67822.06293</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.839462</v>
+        <v>18.839462000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.820000</v>
+        <v>1106.82</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.799000</v>
+        <v>-309.79899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>67833.001204</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.842500</v>
+        <v>18.842500000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-489.462000</v>
+        <v>-489.46199999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>67843.559045</v>
+        <v>67843.559045000002</v>
       </c>
       <c r="BT19" s="1">
         <v>18.845433</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV19" s="1">
-        <v>-685.142000</v>
+        <v>-685.14200000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>67854.419943</v>
+        <v>67854.419943000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.848450</v>
+        <v>18.84845</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA19" s="1">
-        <v>-893.458000</v>
+        <v>-893.45799999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>67867.148278</v>
+        <v>67867.148277999993</v>
       </c>
       <c r="CD19" s="1">
         <v>18.851986</v>
       </c>
       <c r="CE19" s="1">
-        <v>1822.210000</v>
+        <v>1822.21</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1386.000000</v>
+        <v>-1386</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>67694.321307</v>
+        <v>67694.321307000006</v>
       </c>
       <c r="B20" s="1">
-        <v>18.803978</v>
+        <v>18.803978000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>900.681000</v>
+        <v>900.68100000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-188.592000</v>
+        <v>-188.59200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>67704.413873</v>
+        <v>67704.413872999998</v>
       </c>
       <c r="G20" s="1">
-        <v>18.806782</v>
+        <v>18.806781999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>916.725000</v>
+        <v>916.72500000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.125000</v>
+        <v>-161.125</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>67714.874992</v>
+        <v>67714.874991999997</v>
       </c>
       <c r="L20" s="1">
         <v>18.809687</v>
       </c>
       <c r="M20" s="1">
-        <v>939.321000</v>
+        <v>939.32100000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.121000</v>
+        <v>-116.121</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>67725.326195</v>
+        <v>67725.326195000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.812591</v>
+        <v>18.812591000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>946.365000</v>
+        <v>946.36500000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.438000</v>
+        <v>-101.438</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>67735.596356</v>
+        <v>67735.596355999995</v>
       </c>
       <c r="V20" s="1">
-        <v>18.815443</v>
+        <v>18.815442999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>953.483000</v>
+        <v>953.48299999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.671000</v>
+        <v>-87.671000000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>67746.470150</v>
+        <v>67746.470149999994</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.818464</v>
+        <v>18.818463999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.571000</v>
+        <v>961.57100000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.801700</v>
+        <v>-76.801699999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>67756.944664</v>
+        <v>67756.944663999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.821374</v>
+        <v>18.821373999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.765000</v>
+        <v>966.76499999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.838700</v>
+        <v>-74.838700000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>67767.489610</v>
+        <v>67767.489610000004</v>
       </c>
       <c r="AK20" s="1">
         <v>18.824303</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.378000</v>
+        <v>974.37800000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.572600</v>
+        <v>-79.572599999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>67778.407380</v>
+        <v>67778.407380000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.827335</v>
+        <v>18.827335000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.671000</v>
+        <v>982.67100000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.000400</v>
+        <v>-91.000399999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>67789.507518</v>
+        <v>67789.507517999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.830419</v>
+        <v>18.830418999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.646000</v>
+        <v>992.64599999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.460000</v>
+        <v>-108.46</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>67800.469135</v>
+        <v>67800.469135000007</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.833464</v>
+        <v>18.833463999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.970000</v>
+        <v>1000.97</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>67811.439616</v>
+        <v>67811.439616000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.836511</v>
+        <v>18.836511000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.830000</v>
+        <v>1039.83</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.029000</v>
+        <v>-195.029</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>67822.438434</v>
+        <v>67822.438433999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.839566</v>
+        <v>18.839566000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.820000</v>
+        <v>1106.82</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.850000</v>
+        <v>-309.85000000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>67833.397011</v>
+        <v>67833.397010999994</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.842610</v>
+        <v>18.842610000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-489.457000</v>
+        <v>-489.45699999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>67843.982171</v>
+        <v>67843.982170999996</v>
       </c>
       <c r="BT20" s="1">
         <v>18.845551</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.450000</v>
+        <v>1336.45</v>
       </c>
       <c r="BV20" s="1">
-        <v>-685.151000</v>
+        <v>-685.15099999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>67854.836123</v>
+        <v>67854.836123000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.848566</v>
+        <v>18.848566000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA20" s="1">
-        <v>-893.333000</v>
+        <v>-893.33299999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>67867.701318</v>
+        <v>67867.701318000007</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.852139</v>
+        <v>18.852139000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1821.160000</v>
+        <v>1821.16</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1386.160000</v>
+        <v>-1386.16</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>67694.968554</v>
+        <v>67694.968554000006</v>
       </c>
       <c r="B21" s="1">
-        <v>18.804158</v>
+        <v>18.804158000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>900.643000</v>
+        <v>900.64300000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-188.604000</v>
+        <v>-188.60400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>67705.074046</v>
+        <v>67705.074045999994</v>
       </c>
       <c r="G21" s="1">
-        <v>18.806965</v>
+        <v>18.806965000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>917.212000</v>
+        <v>917.21199999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-160.759000</v>
+        <v>-160.75899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>67715.256415</v>
+        <v>67715.256414999996</v>
       </c>
       <c r="L21" s="1">
-        <v>18.809793</v>
+        <v>18.809792999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.305000</v>
+        <v>939.30499999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.192000</v>
+        <v>-116.19199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>67725.484914</v>
+        <v>67725.484914000001</v>
       </c>
       <c r="Q21" s="1">
         <v>18.812635</v>
       </c>
       <c r="R21" s="1">
-        <v>946.340000</v>
+        <v>946.34</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.369000</v>
+        <v>-101.369</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>67735.938100</v>
+        <v>67735.938099999999</v>
       </c>
       <c r="V21" s="1">
         <v>18.815538</v>
       </c>
       <c r="W21" s="1">
-        <v>953.512000</v>
+        <v>953.51199999999994</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.570700</v>
+        <v>-87.570700000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>67746.815365</v>
+        <v>67746.815365000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.818560</v>
+        <v>18.818560000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.595000</v>
+        <v>961.59500000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.832600</v>
+        <v>-76.832599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>67757.289881</v>
+        <v>67757.289881000004</v>
       </c>
       <c r="AF21" s="1">
         <v>18.821469</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.740000</v>
+        <v>966.74</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.822100</v>
+        <v>-74.822100000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>67767.908235</v>
+        <v>67767.908234999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.824419</v>
+        <v>18.824418999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.391000</v>
+        <v>974.39099999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.557400</v>
+        <v>-79.557400000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>67778.709613</v>
+        <v>67778.709612999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.827419</v>
+        <v>18.827418999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.664000</v>
+        <v>982.66399999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.004100</v>
+        <v>-91.004099999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>67789.819998</v>
+        <v>67789.819998000006</v>
       </c>
       <c r="AU21" s="1">
         <v>18.830506</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.638000</v>
+        <v>992.63800000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.469000</v>
+        <v>-108.46899999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>67800.827711</v>
+        <v>67800.827711000005</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.833563</v>
+        <v>18.833563000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.943000</v>
+        <v>-123.943</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>67811.800240</v>
+        <v>67811.800239999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.836611</v>
+        <v>18.836611000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.057000</v>
+        <v>-195.05699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>67822.834706</v>
+        <v>67822.834705999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.839676</v>
+        <v>18.839676000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.807000</v>
+        <v>-309.80700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>67833.819602</v>
+        <v>67833.819602000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.842728</v>
+        <v>18.842728000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-489.429000</v>
+        <v>-489.42899999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>67844.493510</v>
+        <v>67844.49351</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.845693</v>
+        <v>18.845693000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-685.111000</v>
+        <v>-685.11099999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>67855.283803</v>
+        <v>67855.283802999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.848690</v>
+        <v>18.848690000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.070000</v>
+        <v>1471.07</v>
       </c>
       <c r="CA21" s="1">
-        <v>-893.404000</v>
+        <v>-893.404</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>67868.232070</v>
+        <v>67868.232069999998</v>
       </c>
       <c r="CD21" s="1">
         <v>18.852287</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.350000</v>
+        <v>1822.35</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1385.470000</v>
+        <v>-1385.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>67695.344026</v>
+        <v>67695.344026000006</v>
       </c>
       <c r="B22" s="1">
-        <v>18.804262</v>
+        <v>18.804262000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>900.944000</v>
+        <v>900.94399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-188.589000</v>
+        <v>-188.589</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>67705.446045</v>
+        <v>67705.446045000004</v>
       </c>
       <c r="G22" s="1">
-        <v>18.807068</v>
+        <v>18.807068000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>917.123000</v>
+        <v>917.12300000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-160.645000</v>
+        <v>-160.64500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>67715.601135</v>
+        <v>67715.601135000004</v>
       </c>
       <c r="L22" s="1">
-        <v>18.809889</v>
+        <v>18.809888999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>939.428000</v>
+        <v>939.428</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.261000</v>
+        <v>-116.261</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>67725.835122</v>
+        <v>67725.835122000004</v>
       </c>
       <c r="Q22" s="1">
         <v>18.812732</v>
       </c>
       <c r="R22" s="1">
-        <v>946.349000</v>
+        <v>946.34900000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.424000</v>
+        <v>-101.42400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>67736.281363</v>
+        <v>67736.281363000002</v>
       </c>
       <c r="V22" s="1">
-        <v>18.815634</v>
+        <v>18.815633999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.506000</v>
+        <v>953.50599999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.661300</v>
+        <v>-87.661299999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>67747.242422</v>
+        <v>67747.242421999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.818678</v>
+        <v>18.818677999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.574000</v>
+        <v>961.57399999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.811400</v>
+        <v>-76.811400000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>67757.727353</v>
+        <v>67757.727352999995</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.821591</v>
+        <v>18.821591000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.766000</v>
+        <v>966.76599999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.836300</v>
+        <v>-74.836299999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>67768.194953</v>
+        <v>67768.194952999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.824499</v>
+        <v>18.824498999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.361000</v>
+        <v>974.36099999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.545200</v>
+        <v>-79.545199999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>67779.073875</v>
+        <v>67779.073875000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.827521</v>
+        <v>18.827521000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.696000</v>
+        <v>982.69600000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.991100</v>
+        <v>-90.991100000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>67790.180588</v>
+        <v>67790.180588000003</v>
       </c>
       <c r="AU22" s="1">
         <v>18.830606</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.658000</v>
+        <v>992.65800000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.494000</v>
+        <v>-108.494</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>67801.185326</v>
+        <v>67801.185326000006</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.833663</v>
+        <v>18.833663000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.921000</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>67812.521888</v>
+        <v>67812.521888000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.836812</v>
+        <v>18.836811999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.051000</v>
+        <v>-195.05099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>67823.586146</v>
+        <v>67823.586146000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.839885</v>
+        <v>18.839884999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.832000</v>
+        <v>-309.83199999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>67834.211476</v>
+        <v>67834.211475999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.842837</v>
+        <v>18.842836999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-489.437000</v>
+        <v>-489.43700000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>67844.832774</v>
+        <v>67844.832773999995</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.845787</v>
+        <v>18.845787000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.380000</v>
+        <v>1336.38</v>
       </c>
       <c r="BV22" s="1">
-        <v>-685.107000</v>
+        <v>-685.10699999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>67855.705575</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.848807</v>
+        <v>18.848807000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA22" s="1">
-        <v>-893.455000</v>
+        <v>-893.45500000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>67869.065968</v>
+        <v>67869.065967999995</v>
       </c>
       <c r="CD22" s="1">
         <v>18.852518</v>
       </c>
       <c r="CE22" s="1">
-        <v>1821.440000</v>
+        <v>1821.44</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1384.490000</v>
+        <v>-1384.49</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>67695.688249</v>
+        <v>67695.688248999999</v>
       </c>
       <c r="B23" s="1">
-        <v>18.804358</v>
+        <v>18.804358000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>900.821000</v>
+        <v>900.82100000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-188.532000</v>
+        <v>-188.53200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>67705.793245</v>
+        <v>67705.793244999993</v>
       </c>
       <c r="G23" s="1">
-        <v>18.807165</v>
+        <v>18.807165000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>916.659000</v>
+        <v>916.65899999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-160.938000</v>
+        <v>-160.93799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>67715.946350</v>
+        <v>67715.946349999998</v>
       </c>
       <c r="L23" s="1">
-        <v>18.809985</v>
+        <v>18.809985000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>939.342000</v>
+        <v>939.34199999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.126000</v>
+        <v>-116.126</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>67726.263634</v>
+        <v>67726.263634000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.812851</v>
+        <v>18.812850999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>946.395000</v>
+        <v>946.39499999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.356000</v>
+        <v>-101.35599999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>67736.700450</v>
+        <v>67736.700450000004</v>
       </c>
       <c r="V23" s="1">
-        <v>18.815750</v>
+        <v>18.815750000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.525000</v>
+        <v>953.52499999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.639200</v>
+        <v>-87.639200000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>67747.516212</v>
+        <v>67747.516212000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.818755</v>
+        <v>18.818754999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.542000</v>
+        <v>961.54200000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.816200</v>
+        <v>-76.816199999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>67758.000185</v>
+        <v>67758.000184999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.821667</v>
+        <v>18.821667000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.789000</v>
+        <v>966.78899999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.926000</v>
+        <v>-74.926000000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>67768.546089</v>
+        <v>67768.546088999996</v>
       </c>
       <c r="AK23" s="1">
         <v>18.824596</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.366000</v>
+        <v>974.36599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.545400</v>
+        <v>-79.545400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>67779.430300</v>
+        <v>67779.430300000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.827620</v>
+        <v>18.82762</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.684000</v>
+        <v>982.68399999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.006200</v>
+        <v>-91.006200000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>67790.547133</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.830708</v>
+        <v>18.830708000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.631000</v>
+        <v>992.63099999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>67801.904061</v>
+        <v>67801.904060999994</v>
       </c>
       <c r="AZ23" s="1">
         <v>18.833862</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.980000</v>
+        <v>1000.98</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.924000</v>
+        <v>-123.92400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>67812.911278</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.836920</v>
+        <v>18.836919999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.049000</v>
+        <v>-195.04900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>67823.989426</v>
@@ -6058,769 +6474,769 @@
         <v>18.839997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.880000</v>
+        <v>1106.8800000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.824000</v>
+        <v>-309.82400000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>67834.632051</v>
+        <v>67834.632050999993</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.842953</v>
+        <v>18.842953000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-489.425000</v>
+        <v>-489.42500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>67845.576809</v>
+        <v>67845.576809000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.845994</v>
+        <v>18.845994000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-685.196000</v>
+        <v>-685.19600000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>67856.428277</v>
+        <v>67856.428276999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.849008</v>
+        <v>18.849008000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.250000</v>
+        <v>1471.25</v>
       </c>
       <c r="CA23" s="1">
-        <v>-893.324000</v>
+        <v>-893.32399999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>67869.267684</v>
+        <v>67869.267684000006</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.852574</v>
+        <v>18.852574000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1820.590000</v>
+        <v>1820.59</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1385.320000</v>
+        <v>-1385.32</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>67696.030025</v>
       </c>
       <c r="B24" s="1">
-        <v>18.804453</v>
+        <v>18.804452999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>900.746000</v>
+        <v>900.74599999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-188.384000</v>
+        <v>-188.38399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>67706.137963</v>
+        <v>67706.137963000001</v>
       </c>
       <c r="G24" s="1">
         <v>18.807261</v>
       </c>
       <c r="H24" s="1">
-        <v>917.025000</v>
+        <v>917.02499999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-160.347000</v>
+        <v>-160.34700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>67716.367486</v>
+        <v>67716.367486000003</v>
       </c>
       <c r="L24" s="1">
-        <v>18.810102</v>
+        <v>18.810102000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.287000</v>
+        <v>939.28700000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.155000</v>
+        <v>-116.155</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>67726.543872</v>
+        <v>67726.543871999995</v>
       </c>
       <c r="Q24" s="1">
         <v>18.812929</v>
       </c>
       <c r="R24" s="1">
-        <v>946.419000</v>
+        <v>946.41899999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.391000</v>
+        <v>-101.39100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>67736.990152</v>
+        <v>67736.990151999998</v>
       </c>
       <c r="V24" s="1">
-        <v>18.815831</v>
+        <v>18.815830999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>953.636000</v>
+        <v>953.63599999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.712300</v>
+        <v>-87.712299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>67747.863908</v>
+        <v>67747.863907999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.818851</v>
+        <v>18.818850999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.588000</v>
+        <v>961.58799999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.791300</v>
+        <v>-76.791300000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>67758.342391</v>
+        <v>67758.342390999998</v>
       </c>
       <c r="AF24" s="1">
         <v>18.821762</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.758000</v>
+        <v>966.75800000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.850300</v>
+        <v>-74.850300000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>67768.895805</v>
+        <v>67768.895804999993</v>
       </c>
       <c r="AK24" s="1">
         <v>18.824693</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.359000</v>
+        <v>974.35900000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.546100</v>
+        <v>-79.546099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>67780.150490</v>
+        <v>67780.15049</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.827820</v>
+        <v>18.827819999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.671000</v>
+        <v>982.67100000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.004800</v>
+        <v>-91.004800000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>67791.277740</v>
+        <v>67791.277740000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.830910</v>
+        <v>18.830909999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.637000</v>
+        <v>992.63699999999994</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.479000</v>
+        <v>-108.479</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>67802.261646</v>
+        <v>67802.261645999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>18.833962</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.940000</v>
+        <v>1000.94</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.931000</v>
+        <v>-123.931</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>67813.292706</v>
+        <v>67813.292705999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.837026</v>
+        <v>18.837026000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1039.800000</v>
+        <v>1039.8</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.045000</v>
+        <v>-195.04499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>67824.361391</v>
+        <v>67824.361390999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.840100</v>
+        <v>18.8401</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.780000</v>
+        <v>1106.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.827000</v>
+        <v>-309.827</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>67835.344800</v>
+        <v>67835.344800000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.843151</v>
+        <v>18.843150999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-489.435000</v>
+        <v>-489.435</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>67845.694818</v>
+        <v>67845.694818000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.846026</v>
+        <v>18.846025999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.250000</v>
+        <v>1336.25</v>
       </c>
       <c r="BV24" s="1">
-        <v>-685.172000</v>
+        <v>-685.17200000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>67856.608294</v>
+        <v>67856.608294000005</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.849058</v>
+        <v>18.849057999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.210000</v>
+        <v>1471.21</v>
       </c>
       <c r="CA24" s="1">
-        <v>-893.462000</v>
+        <v>-893.46199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>67869.784515</v>
+        <v>67869.784515000007</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.852718</v>
+        <v>18.852717999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1820.740000</v>
+        <v>1820.74</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1385.040000</v>
+        <v>-1385.04</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>67696.453608</v>
+        <v>67696.453607999996</v>
       </c>
       <c r="B25" s="1">
-        <v>18.804570</v>
+        <v>18.804569999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>900.864000</v>
+        <v>900.86400000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-188.484000</v>
+        <v>-188.48400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>67706.556091</v>
+        <v>67706.556091000006</v>
       </c>
       <c r="G25" s="1">
-        <v>18.807377</v>
+        <v>18.807376999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>916.949000</v>
+        <v>916.94899999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-160.567000</v>
+        <v>-160.56700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>67716.661117</v>
+        <v>67716.661116999996</v>
       </c>
       <c r="L25" s="1">
         <v>18.810184</v>
       </c>
       <c r="M25" s="1">
-        <v>939.380000</v>
+        <v>939.38</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.049000</v>
+        <v>-116.04900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>67726.893088</v>
+        <v>67726.893087999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.813026</v>
+        <v>18.813026000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>946.396000</v>
+        <v>946.39599999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.411000</v>
+        <v>-101.411</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>67737.336322</v>
+        <v>67737.336322000003</v>
       </c>
       <c r="V25" s="1">
-        <v>18.815927</v>
+        <v>18.815926999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>953.614000</v>
+        <v>953.61400000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.618600</v>
+        <v>-87.618600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>67748.210117</v>
+        <v>67748.210116999995</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.818947</v>
+        <v>18.818947000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.596000</v>
+        <v>961.596</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.811000</v>
+        <v>-76.811000000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>67758.684631</v>
+        <v>67758.684630999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.821857</v>
+        <v>18.821857000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.784000</v>
+        <v>966.78399999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.834700</v>
+        <v>-74.834699999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>67769.591439</v>
+        <v>67769.591438999996</v>
       </c>
       <c r="AK25" s="1">
         <v>18.824887</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.388000</v>
+        <v>974.38800000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.579800</v>
+        <v>-79.579800000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>67780.540346</v>
+        <v>67780.540345999994</v>
       </c>
       <c r="AP25" s="1">
         <v>18.827928</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.663000</v>
+        <v>982.66300000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.985100</v>
+        <v>-90.985100000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>67791.665114</v>
+        <v>67791.665114000003</v>
       </c>
       <c r="AU25" s="1">
         <v>18.831018</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.650000</v>
+        <v>992.65</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.471000</v>
+        <v>-108.471</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>67802.621960</v>
+        <v>67802.621960000004</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.834062</v>
+        <v>18.834061999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.960000</v>
+        <v>1000.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.926000</v>
+        <v>-123.926</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>67813.968221</v>
+        <v>67813.968221000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.837213</v>
+        <v>18.837212999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1039.820000</v>
+        <v>1039.82</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.025000</v>
+        <v>-195.02500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>67825.049342</v>
+        <v>67825.049341999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.840291</v>
+        <v>18.840291000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.860000</v>
+        <v>-309.86</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>67835.454944</v>
+        <v>67835.454943999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.843182</v>
+        <v>18.843181999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-489.429000</v>
+        <v>-489.42899999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>67846.107988</v>
+        <v>67846.107988000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.846141</v>
+        <v>18.846140999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.220000</v>
+        <v>1336.22</v>
       </c>
       <c r="BV25" s="1">
-        <v>-685.184000</v>
+        <v>-685.18399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>67857.032868</v>
+        <v>67857.032867999995</v>
       </c>
       <c r="BY25" s="1">
         <v>18.849176</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.120000</v>
+        <v>1471.12</v>
       </c>
       <c r="CA25" s="1">
-        <v>-893.395000</v>
+        <v>-893.39499999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>67870.335602</v>
+        <v>67870.335602000006</v>
       </c>
       <c r="CD25" s="1">
         <v>18.852871</v>
       </c>
       <c r="CE25" s="1">
-        <v>1821.300000</v>
+        <v>1821.3</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1384.420000</v>
+        <v>-1384.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>67696.726871</v>
+        <v>67696.726871000006</v>
       </c>
       <c r="B26" s="1">
-        <v>18.804646</v>
+        <v>18.804646000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>900.764000</v>
+        <v>900.76400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-188.661000</v>
+        <v>-188.661</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>67706.837324</v>
+        <v>67706.837323999993</v>
       </c>
       <c r="G26" s="1">
-        <v>18.807455</v>
+        <v>18.807455000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.227000</v>
+        <v>917.22699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-160.516000</v>
+        <v>-160.51599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>67717.004846</v>
+        <v>67717.004845999996</v>
       </c>
       <c r="L26" s="1">
-        <v>18.810279</v>
+        <v>18.810279000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>939.327000</v>
+        <v>939.327</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.096000</v>
+        <v>-116.096</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>67727.242735</v>
+        <v>67727.242735000007</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.813123</v>
+        <v>18.813123000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.425000</v>
+        <v>946.42499999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.440000</v>
+        <v>-101.44</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>67737.679554</v>
+        <v>67737.679554000002</v>
       </c>
       <c r="V26" s="1">
         <v>18.816022</v>
       </c>
       <c r="W26" s="1">
-        <v>953.595000</v>
+        <v>953.59500000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.709300</v>
+        <v>-87.709299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>67748.908490</v>
+        <v>67748.908490000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.819141</v>
+        <v>18.819140999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.525000</v>
+        <v>961.52499999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.832100</v>
+        <v>-76.832099999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>67759.371094</v>
+        <v>67759.371094000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.822048</v>
+        <v>18.822047999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.739000</v>
+        <v>966.73900000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.857600</v>
+        <v>-74.857600000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>67769.938396</v>
+        <v>67769.938395999998</v>
       </c>
       <c r="AK26" s="1">
         <v>18.824983</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.364000</v>
+        <v>974.36400000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.575100</v>
+        <v>-79.575100000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>67780.920778</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.828034</v>
+        <v>18.828033999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.675000</v>
+        <v>982.67499999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.004100</v>
+        <v>-91.004099999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>67792.030666</v>
+        <v>67792.030666000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.831120</v>
+        <v>18.831119999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.634000</v>
+        <v>992.63400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.459000</v>
+        <v>-108.459</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>67803.289356</v>
+        <v>67803.289355999994</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.834247</v>
+        <v>18.834247000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.943000</v>
+        <v>-123.943</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>67814.376924</v>
+        <v>67814.376923999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.837327</v>
+        <v>18.837326999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.810000</v>
+        <v>1039.81</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.022000</v>
+        <v>-195.02199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>67825.158463</v>
@@ -6829,75 +7245,76 @@
         <v>18.840322</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.793000</v>
+        <v>-309.79300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>67835.876513</v>
+        <v>67835.876512999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.843299</v>
+        <v>18.843298999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-489.471000</v>
+        <v>-489.471</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>67846.537554</v>
+        <v>67846.537553999995</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.846260</v>
+        <v>18.846260000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-685.234000</v>
+        <v>-685.23400000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>67857.481251</v>
+        <v>67857.481251000005</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.849300</v>
+        <v>18.849299999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.160000</v>
+        <v>1471.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-893.422000</v>
+        <v>-893.42200000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>67870.866787</v>
+        <v>67870.866787000006</v>
       </c>
       <c r="CD26" s="1">
         <v>18.853019</v>
       </c>
       <c r="CE26" s="1">
-        <v>1820.580000</v>
+        <v>1820.58</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1385.450000</v>
+        <v>-1385.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>